--- a/Base de Artigos.xlsx
+++ b/Base de Artigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboar\Documents\GitHub\ArthurLearnsR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318FE5E9-2C3C-4B96-B1AB-ED5C0F5003F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750342D-0CFF-4A16-BABF-E707E536DE0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A25284F2-3655-465A-A186-7A8A4CA9AF5D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Main Author</t>
   </si>
@@ -70,16 +70,305 @@
   </si>
   <si>
     <t>10º Author</t>
+  </si>
+  <si>
+    <t>Fábio Luiz Teixeira Gonçalves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">André Cardoso Mühlig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Otto Klemm</t>
+  </si>
+  <si>
+    <t>Fog, Temperature and Air Quality Over the Metropolitan Area of São Paulo: a Trend Analysis from 1998 to 2018</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11270-020-04902-6</t>
+  </si>
+  <si>
+    <t>Water, Air, &amp; Soil Pollution</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fenvs.2015.00009/full</t>
+  </si>
+  <si>
+    <t>Maria de Fatima Andrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rita Y. Ynoue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edmilson Dias Freitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enzo Todesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angel Vara Vela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sergio Ibarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leila Droprinchinski Martins</t>
+  </si>
+  <si>
+    <t>Jorge Alberto Martins</t>
+  </si>
+  <si>
+    <t>Vanessa Silveira Barreto Carvalho</t>
+  </si>
+  <si>
+    <t>Air quality forecasting system for Southeastern Brazil</t>
+  </si>
+  <si>
+    <t>Frontiers in Environmental Science</t>
+  </si>
+  <si>
+    <t>10.3389/fenvs.2015.00009</t>
+  </si>
+  <si>
+    <t>Edmilson Dias Freitas</t>
+  </si>
+  <si>
+    <t>Leila Droprinchinski Martins</t>
+  </si>
+  <si>
+    <t>Caroline Rosario Mazzoli</t>
+  </si>
+  <si>
+    <t>Maria de Fátima Andrade</t>
+  </si>
+  <si>
+    <t>Environmental Science &amp; Policy</t>
+  </si>
+  <si>
+    <t>10.1016/j.envsci.2014.11.001</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1462901114002081?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Atmospheric Research</t>
+  </si>
+  <si>
+    <t>Fog events and local atmospheric features simulated by regional climate model for the metropolitan area of São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Rosmeri P.da Rocha</t>
+  </si>
+  <si>
+    <t>Bruna Segalin</t>
+  </si>
+  <si>
+    <t>10.1016/j.atmosres.2014.06.010</t>
+  </si>
+  <si>
+    <t>Air quality status and trends over the Metropolitan Area of São Paulo, Brazil as a result of emission control policies</t>
+  </si>
+  <si>
+    <t>Interactions of an urban heat island and sea-breeze circulations during winter over the metropolitan area of São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Boundary-Layer Meteorology</t>
+  </si>
+  <si>
+    <t>Edmilson D. Freitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Christopher M. Rozoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> William R. Cotton </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pedro L. Silva Dias </t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10546-006-9091-3</t>
+  </si>
+  <si>
+    <t>10.1007/s10546-006-9091-3</t>
+  </si>
+  <si>
+    <t>10.1007/s11270-020-04902-6</t>
+  </si>
+  <si>
+    <t>Drizzle and Fog Analysis in the São Paulo Metropolitan Area: Changes 1933-2005 and Correlations with other Climate Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rosmeri Porfirio da Rocha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gilca Palma Fernandes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sérgio Petto Jr.</t>
+  </si>
+  <si>
+    <t>Die Erde</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>http://homepage.agrl.ethz.ch/eugsterw/publications/fog/04-Goncalves-061-076.pdf</t>
+  </si>
+  <si>
+    <t>Urban Climate</t>
+  </si>
+  <si>
+    <t>Scale-integrated atmospheric simulations to assess thermal comfort in different urban tissues in the warm humid summer of São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>10.1016/j.uclim.2013.08.003</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S2212095513000370?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Erik Johansson</t>
+  </si>
+  <si>
+    <t>Jörg Spangenberg</t>
+  </si>
+  <si>
+    <t>Mariana Lino Gouvêa</t>
+  </si>
+  <si>
+    <t>Fábio L. T. Gonçalves</t>
+  </si>
+  <si>
+    <t>Atmospheric Environment</t>
+  </si>
+  <si>
+    <t>New directions: From biofuels to wood stoves: The modern and ancient air quality challenges in the megacity of São Paulo</t>
+  </si>
+  <si>
+    <t>Prashant Kumar</t>
+  </si>
+  <si>
+    <t>Rita Yuri Ynoue</t>
+  </si>
+  <si>
+    <t>Adalgiza Fornaro.Edmilson Dias de Freitas</t>
+  </si>
+  <si>
+    <t>Jorge Martins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leila D. Martins</t>
+  </si>
+  <si>
+    <t>Taciana Albuquerque</t>
+  </si>
+  <si>
+    <t>Yang Zhang</t>
+  </si>
+  <si>
+    <t>Lidia Morawska</t>
+  </si>
+  <si>
+    <t>10.1016/j.atmosenv.2016.05.059</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1352231016304071?via%3Dihub</t>
+  </si>
+  <si>
+    <t>São Paulo—The “Other” Brazil: Different Pathways on Climate Change for State and Federal Governments</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/10.1177/1070496510378092</t>
+  </si>
+  <si>
+    <t>Oswaldo Lucon</t>
+  </si>
+  <si>
+    <t>José Goldemberg</t>
+  </si>
+  <si>
+    <t>The Journal of Environment &amp; Development</t>
+  </si>
+  <si>
+    <t>10.1177/1070496510378092</t>
+  </si>
+  <si>
+    <t>https://www.hindawi.com/journals/amete/2016/8570581/</t>
+  </si>
+  <si>
+    <t>The Evolution of Temporal and Spatial Patterns of Carbon Monoxide Concentrations in the Metropolitan Area of Sao Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Advances in Meteorology</t>
+  </si>
+  <si>
+    <t>10.1155/2016/8570581</t>
+  </si>
+  <si>
+    <t>Flavia Noronha Dutra Ribeiro</t>
+  </si>
+  <si>
+    <t>Delhi Teresa Paiva Salinas</t>
+  </si>
+  <si>
+    <t>Jacyra Soares</t>
+  </si>
+  <si>
+    <t>Amauri Pereira de Oliveira</t>
+  </si>
+  <si>
+    <t>Regina Maura de Miranda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luana Antunes Tolentino Souza</t>
+  </si>
+  <si>
+    <t>10.1002/2014JD022812</t>
+  </si>
+  <si>
+    <t>Traffic-related air quality trends in São Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Pedro José Pérez-Martínez</t>
+  </si>
+  <si>
+    <t>María de Fátima Andrade</t>
+  </si>
+  <si>
+    <t>https://agupubs.onlinelibrary.wiley.com/doi/full/10.1002/2014JD022812</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Journal of Geophysical Research: Atmospheres</t>
+  </si>
+  <si>
+    <t>Mendeley</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF131413"/>
+      <name val="PhsbwqAdvTTb8864ccf.B"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,13 +391,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,67 +727,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB06F7A0-F5E8-488F-AFCC-2DF662BC5B37}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
+    <col min="8" max="15" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="63.75">
+      <c r="A2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="60">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="75">
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="75">
+      <c r="B5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="60">
+      <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="60">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="45">
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2010</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="60">
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="75">
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="75">
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="75">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:P12">
+    <sortCondition ref="C2:C12"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C9C2A20A-19F8-4D2A-9EDE-D62F64A6033F}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{9BB699BA-748C-4F65-81D6-3B187A673E8B}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{20A7F63A-1092-4ADF-B9FE-87905F179729}"/>
+    <hyperlink ref="B11" r:id="rId4" xr:uid="{9BCA0F6A-FB8C-4BA3-AE1E-1D4D22E7EE64}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{669BA9F5-2426-4296-9559-5C1ACC1B788D}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{48726681-3574-4BF4-B806-EC7B12C8EBFD}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{0D8206FA-421B-4A5E-AA5A-3B3CF13343EB}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{121ED562-8131-4C68-B8EA-7BEF73E0B75A}"/>
+    <hyperlink ref="B8" r:id="rId9" xr:uid="{1D083F17-B9BA-405A-856F-BD6183E6E04F}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{2459983A-CDA0-4F1D-B9E5-9F8AE7AF770E}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{D75AC7DD-68AE-44DD-AED2-A904097D237C}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Base de Artigos.xlsx
+++ b/Base de Artigos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboar\Documents\GitHub\ArthurLearnsR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F750342D-0CFF-4A16-BABF-E707E536DE0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90025D-EBEA-4514-823B-900DFC989398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A25284F2-3655-465A-A186-7A8A4CA9AF5D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Citações" sheetId="2" r:id="rId1"/>
+    <sheet name="Completo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="318">
   <si>
     <t>Main Author</t>
   </si>
@@ -346,6 +347,640 @@
   </si>
   <si>
     <t>Sim</t>
+  </si>
+  <si>
+    <t>Santos FS dos, Pinto JA, Maciel FM, et al (2019) Avaliação da influência das condições meteorológicas na concentração de material particulado fino (MP2,5) em Belo Horizonte, MG. Eng Sanit e Ambient 24:371–381. https://doi.org/10.1590/s1413-41522019174045</t>
+  </si>
+  <si>
+    <t>Santos FS dos, Pinto JA, Maciel FM, et al (2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eng Sanit e Ambient 24:371–381.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1590/s1413-41522019174045</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>PDF e Impresso</t>
+  </si>
+  <si>
+    <t>ANDRADE, M.F.; MIRANDA, R.M.; FORNARO, A.; KERR, A.; OYAMA, B.; ANDRE, P.A.; SALDIVA, P. (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air  Quality, Atmosphere and Health, v. 5, n. 1, p. 79-88.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://dx.doi.org/10.1007%2Fs11869-010-0104-6</t>
+  </si>
+  <si>
+    <t>ANDRADE, M.F.; MIRANDA, R.M.; FORNARO, A.; KERR, A.; OYAMA, B.; ANDRE, P.A.; SALDIVA, P. (2012) Vehicle emissions and PM 2.5 mass concentrations in six Brazilian cities. Air Quality, Atmosphere and Health, v. 5, n. 1, p. 79-88. https://dx.doi.org/10.1007%2Fs11869-010-0104-5</t>
+  </si>
+  <si>
+    <t>MIRANDA, R.M.; ANDRADE, M.F.; FORNARO, A.; ASTOLFO, R.; ANDRE, P.A.; SALDIVA, P. (2012) Urban air pollution: A representative survey of PM 2.5 mass concentrations in six Brazilian cities. Air Quality, Atmosphere and Health, v. 5, n. 1, p. 63-77. https://doi.org/10.1007/s11869-010-0124-1</t>
+  </si>
+  <si>
+    <t>MIRANDA, R.M.; ANDRADE, M.F.; FORNARO, A.; ASTOLFO, R.; ANDRE, P.A.; SALDIVA, P. (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air Quality, Atmosphere and Health, v. 5, n. 1, p. 63-77.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1007/s11869-010-0124-2</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>PRODI, F.; TAMPIERI, F. (1982) The removal of particulate matter from the atmosphere: the physical mechanisms. Pure and Applied Geophysics PAGEOPH, v. 120, n. 2, p. 286-325. https://doi.org/10.1007/BF00877038</t>
+  </si>
+  <si>
+    <t>PRODI, F.; TAMPIERI, F. (1982)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pure and Applied Geophysics PAGEOPH, v. 120, n. 2, p. 286-325.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1007/BF00877039</t>
+  </si>
+  <si>
+    <t>Mühlig AC, Klemm O, Gonçalves FLT (2020) Fog, Temperature and Air Quality Over the Metropolitan Area of São Paulo: a Trend Analysis from 1998 to 2018. Water, Air, Soil Pollut 231:535. https://doi.org/10.1007/s11270-020-04902-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mühlig AC, Klemm O, Gonçalves FLT (2020) </t>
+  </si>
+  <si>
+    <t>Fog, Temperature and Air Quality Over the Metropolitan Area of São Paulo: a Trend Analysis from 1998 to 2018.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water, Air, Soil Pollut 231:535. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11270-020-04902-7</t>
+  </si>
+  <si>
+    <t>Andrade, M. D. F., Ynoue, R. Y., Freitas, E. D., Todesco, E., Vara Vela, A., Ibarra, S., Martins, L. D., Martins, J. A., &amp; Carvalho, V. S. B. (2015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Frontiers in Environmental Science, 3. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fenvs.2015.00009.</t>
+  </si>
+  <si>
+    <t>Air quality forecasting system for southeastern Brazil.</t>
+  </si>
+  <si>
+    <t>Carvalho, V. S. B., Freitas, E. D., Martins, L. D., Martins, J. A., Mazzoli, C. R., &amp; Andrade, M. de F. (2015).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Environmental Science &amp; Policy, 47, 68–79.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/j.envsci.2014.11.001.</t>
+  </si>
+  <si>
+    <t>The removal of particulate matter from the atmosphere: the physical mechanisms.</t>
+  </si>
+  <si>
+    <t>Citação</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Air quality status and trends over the metropolitan area of São Paulo, Brazil as a result of emission control policies.</t>
+  </si>
+  <si>
+    <t>Avaliação da influência das condições meteorológicas na concentração de material particulado fino (MP2,5) em Belo Horizonte, MG.</t>
+  </si>
+  <si>
+    <t>Urban air pollution: A representative survey of PM 2.5 mass concentrations in six Brazilian cities.</t>
+  </si>
+  <si>
+    <t>Vehicle emissions and PM 2.5 mass concentrations in six Brazilian cities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Rocha, R. P., Gonçalves, F. L. T., &amp; Segalin, B. (2015). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fog events and local atmospheric features simulated by regional climate model for the metropolitan area of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Research, 151, 176–188. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosres.2014.06.010.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freitas, E. D., Rozoff, C. M., Cotton, W. R., &amp; Silva Dias, P. L. (2007). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactions of an urban heat island and sea-breeze circulations during winter over the metropolitan area of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t>Boundary-Layer Meteorology, 122, 43–65.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1007/s10546-006-9091-3.</t>
+  </si>
+  <si>
+    <t>Da Rocha, R. P., Gonçalves, F. L. T., &amp; Segalin, B. (2015). Fog events and local atmospheric features simulated by regional climate model for the metropolitan area of São Paulo, Brazil. Atmospheric Research, 151, 176–188. https://doi.org/10.1016/j.atmosres.2014.06.010.</t>
+  </si>
+  <si>
+    <t>Freitas, E. D., Rozoff, C. M., Cotton, W. R., &amp; Silva Dias, P. L. (2007). Interactions of an urban heat island and sea-breeze circulations during winter over the metropolitan area of São Paulo, Brazil. Boundary-Layer Meteorology, 122, 43–65. https://doi.org/10.1007/s10546-006-9091-3.</t>
+  </si>
+  <si>
+    <t>Andrade, M. D. F., Ynoue, R. Y., Freitas, E. D., Todesco, E., Vara Vela, A., Ibarra, S., Martins, L. D., Martins, J. A., &amp; Carvalho, V. S. B. (2015). Air quality forecasting system for southeastern Brazil. Frontiers in Environmental Science, 3. https://doi.org/10.3389/fenvs.2015.00009.</t>
+  </si>
+  <si>
+    <t>Carvalho, V. S. B., Freitas, E. D., Martins, L. D., Martins, J. A., Mazzoli, C. R., &amp; Andrade, M. de F. (2015). Air quality status and trends over the metropolitan area of São Paulo, Brazil as a result of emission control policies. Environmental Science &amp; Policy, 47, 68–79. https://doi.org/10.1016/j.envsci.2014.11.001.</t>
+  </si>
+  <si>
+    <t>Gonçalves, F. L. T., da Rocha, R. P., Fernandes, G. P., &amp; Petto, S. (2008). Drizzle and fog analysis in the São Paulo Metropolitan Area: changes 1933–2005 and correlations with other climate factors. Die Erde, 139, 61–76.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalves, F. L. T., da Rocha, R. P., Fernandes, G. P., &amp; Petto, S. (2008). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drizzle and fog analysis in the São Paulo Metropolitan Area: changes 1933–2005 and correlations with other climate factors. </t>
+  </si>
+  <si>
+    <t>Die Erde, 139, 61–76.</t>
+  </si>
+  <si>
+    <t>Johansson, E., Spangenberg, J., Gouvêa, M. L., &amp; Freitas, E. D. (2013). Scale-integrated atmospheric simulations to assess thermal comfort in different urban tissues in the warm humid summer of São Paulo, Brazil. Urban Climate, 6, 24–43. https://doi.org/10.1016/j.uclim.2013.08.003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johansson, E., Spangenberg, J., Gouvêa, M. L., &amp; Freitas, E. D. (2013). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale-integrated atmospheric simulations to assess thermal comfort in different urban tissues in the warm humid summer of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Climate, 6, 24–43. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.uclim.2013.08.003.</t>
+  </si>
+  <si>
+    <t>Kumar, P., de Fatima Andrade, M., Ynoue, R. Y., Fornaro, A., de Freitas, E. D., Martins, J., Martins, L. D., Albuquerque, T., Zhang, Y., &amp; Morawska, L. (2016). New directions: From biofuels to wood stoves: the modern and ancient air quality challenges in the megacity of São Paulo. Atmospheric Environment. https://doi.org/10.1016/j.atmosenv.2016.05.059.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar, P., de Fatima Andrade, M., Ynoue, R. Y., Fornaro, A., de Freitas, E. D., Martins, J., Martins, L. D., Albuquerque, T., Zhang, Y., &amp; Morawska, L. (2016). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New directions: From biofuels to wood stoves: the modern and ancient air quality challenges in the megacity of São Paulo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Environment. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2016.05.059.</t>
+  </si>
+  <si>
+    <t>Lucon, O., &amp; Goldemberg, J. (2010). São Paulo–the “other” Brazil: different pathways on climate change for state and federal governments. Journal of Environment &amp; Development, 19, 335–357. https://doi.org/10.1177/1070496510378092.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucon, O., &amp; Goldemberg, J. (2010). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">São Paulo–the “other” Brazil: different pathways on climate change for state and federal governments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Environment &amp; Development, 19, 335–357. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/1070496510378092.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noronha, F., Ribeiro, D., Teresa, D., Salinas, P., Soares, J., De Oliveira, A. P., De Miranda, R. M., Antunes, L., &amp; Souza, T. (2016). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The evolution of temporal and spatial patterns of carbon monoxide concentrations in the metropolitan area of Sao Paulo, Brazil 2016. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Meteorology. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2016/8570581.</t>
+  </si>
+  <si>
+    <t>Noronha, F., Ribeiro, D., Teresa, D., Salinas, P., Soares, J., De
+Oliveira, A. P., De Miranda, R. M., Antunes, L., &amp; Souza, T. (2016). The evolution of temporal and spatial patterns of carbon monoxide concentrations in the metropolitan area of Sao Paulo, Brazil 2016. Advances in Meteorology. https://doi.org/10.1155/2016/8570581.</t>
+  </si>
+  <si>
+    <t>Pérez-Martínez, P. J., de Fátima Andrade, M., &amp; De Miranda, R. M. (2015). Traffic-related air quality trends in São Paulo, Brazil. Journal of Geophysical Research – Atmospheres. https://doi.org/10.1002/2014JD022812.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pérez-Martínez, P. J., de Fátima Andrade, M., &amp; De Miranda, R. M. (2015). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic-related air quality trends in São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Geophysical Research – Atmospheres. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/2014JD022812.</t>
+  </si>
+  <si>
+    <t>Vara-Vela, A., Andrade, M. F., Kumar, P., Ynoue, R. Y., &amp; Muñoz, A. G. (2016). Impact of vehicular emissions on the formation of fine particles in the São Paulo metropolitan area: a numerical study with the WRF-Chem model. Atmospheric Chemistry and Physics, 16. https://doi.org/10.5194/acp-16-777-2016.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vara-Vela, A., Andrade, M. F., Kumar, P., Ynoue, R. Y., &amp; Muñoz, A. G. (2016). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of vehicular emissions on the formation of fine particles in the São Paulo metropolitan area: a numerical study with the WRF-Chem model. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Chemistry and Physics, 16. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5194/acp-16-777-2016.</t>
+  </si>
+  <si>
+    <t>Vasconcellos, P. C., Gonçalves, F. L. T., Avila, S. G., Censon, V. K., &amp; Bauer, H. (2018). The chemical composition of winter fogs at São Paulo highway sites. Journal of the Brazilian Chemical Society, 29, 1951–1958. https://doi.org/10.21577/0103-5053.20180072.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasconcellos, P. C., Gonçalves, F. L. T., Avila, S. G., Censon, V. K., &amp; Bauer, H. (2018). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The chemical composition of winter fogs at São Paulo highway sites. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of the Brazilian Chemical Society, 29, 1951–1958. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.21577/0103-5053.20180072.</t>
+  </si>
+  <si>
+    <t>Vemado, F., José, A., &amp; Filho, P. (2016). Severe weather caused by heat island and sea breeze effects in the metropolitan area of São Paulo, Brazil. Advances in Meteorology. https://doi.org/10.1155/2016/8364134.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vemado, F., José, A., &amp; Filho, P. (2016). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe weather caused by heat island and sea breeze effects in the metropolitan area of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1155/2016/8364134.</t>
+  </si>
+  <si>
+    <t>de A. Albuquerque TT, West J, de F. Andrade M, et al (2019) Analysis of PM2.5 concentrations under pollutant emission control strategies in the metropolitan area of São Paulo, Brazil. Environ Sci Pollut Res 26:33216–33227. https://doi.org/10.1007/s11356-019-06447-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de A. Albuquerque TT, West J, de F. Andrade M, et al (2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of PM2.5 concentrations under pollutant emission control strategies in the metropolitan area of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Sci Pollut Res 26:33216–33227. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11356-019-06447-7</t>
+  </si>
+  <si>
+    <t>Albuquerque TTA, Andrade MF, Ynoue RY (2012) Characterization of atmospheric aerosols in the city of São Paulo, Brazil: comparisons between polluted and unpolluted periods. Environ Monit Assess 184:969–984. https://doi.org/10.1007/s10661-011-2013-y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albuquerque TTA, Andrade MF, Ynoue RY (2012) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization of atmospheric aerosols in the city of São Paulo, Brazil: comparisons between polluted and unpolluted periods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Monit Assess 184:969–984. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10661-011-2013-y</t>
+  </si>
+  <si>
+    <t>Albuquerque TTA, Andrade MF, Ynoue RY, Moreira DM, Andreão WL, Santos FS, Nascimento EGS (2018) WRF-SMOKE-CMAQ modeling system for air quality evaluation in São Paulo megacity with a 2008 experimental campaign data. Environ Sci Pollut Res 25: 36555–36569. https://doi.org/10.1007/s11356-018-3583-9</t>
+  </si>
+  <si>
+    <t>Andrade MF, Kumar P, Freitas ED, Ynoue RY, Martins J, Martins LD, Nogueira T, Perez-Martinez P, Miranda RM, Albuquerque T, Gonçalves FLT, Oyama B, Zhang Y (2017) Air quality in the megacity of São Paulo: evolution over the last 30 years and future perspectives. Atmos Environ 159:66–82. https://doi.org/10.1016/j. atmosenv.2017.03.051</t>
+  </si>
+  <si>
+    <t>Andreão WL, Albuquerque TTA, Kumar P (2018) Excess deaths associated with fine particulate matter in Brazilian cities. Atmos Environ 194:71–81. https://doi.org/10.1016/j.atmosenv.2018.09.034</t>
+  </si>
+  <si>
+    <t>Gavidia-Calderón M, Vara-Vela A, Crespo NM, Andrade MF (2018) Impact of time-dependent chemical boundary conditions on tropospheric ozone simulation with WRF-Chem: An experiment over the Metropolitan Area of São Paulo. Atmos Environ 195:112–124. https://doi.org/10.1016/j.atmosenv.2018.09.026</t>
+  </si>
+  <si>
+    <t>Miranda RM, Andrade MF, Worobiec A, Grieken RV (2002) Characterization of Aerosol Particles in São Paulo Metropolitan Area. Atmos Environ 36:345–352. https://doi.org/10.1016/S1352-2310(01)00363-6</t>
+  </si>
+  <si>
+    <t>Sánchez-Ccoyllo OR, Ynoue RY, Martins LD, Astolfo R, Miranda RM, Freitas ED, Borges AS, Fornaro A, Freitas H, Moreira A, Andrade MF (2009) Vehicular particulate matter emissions in road tunnels in Sao Paulo, Brazil. Environ Monit Assess 149:241–249. https://doi.org/10.1007/s10661-008-0198-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albuquerque TTA, Andrade MF, Ynoue RY, Moreira DM, Andreão WL, Santos FS, Nascimento EGS (2018) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRF-SMOKE-CMAQ modeling system for air quality evaluation in São Paulo megacity with a 2008 experimental campaign data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Sci Pollut Res 25: 36555–36569. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11356-018-3583-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrade MF, Kumar P, Freitas ED, Ynoue RY, Martins J, Martins LD, Nogueira T, Perez-Martinez P, Miranda RM, Albuquerque T, Gonçalves FLT, Oyama B, Zhang Y (2017) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air quality in the megacity of São Paulo: evolution over the last 30 years and future perspectives. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Environ 159:66–82. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j. atmosenv.2017.03.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreão WL, Albuquerque TTA, Kumar P (2018) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excess deaths associated with fine particulate matter in Brazilian cities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Environ 194:71–81. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2018.09.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gavidia-Calderón M, Vara-Vela A, Crespo NM, Andrade MF (2018) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of time-dependent chemical boundary conditions on tropospheric ozone simulation with WRF-Chem: An experiment over the Metropolitan Area of São Paulo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Environ 195:112–124. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2018.09.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miranda RM, Andrade MF, Worobiec A, Grieken RV (2002) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization of Aerosol Particles in São Paulo Metropolitan Area. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Environ 36:345–352. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S1352-2310(01)00363-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sánchez-Ccoyllo OR, Ynoue RY, Martins LD, Astolfo R, Miranda RM, Freitas ED, Borges AS, Fornaro A, Freitas H, Moreira A, Andrade MF (2009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicular particulate matter emissions in road tunnels in Sao Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Monit Assess 149:241–249. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10661-008-0198-6</t>
+  </si>
+  <si>
+    <t>Nogueira T, Dominutti P, Fornaro A, Andrade M de F (2017) Seasonal Trends of Formaldehyde and Acetaldehyde in the Megacity of São Paulo. Atmosphere (Basel) 8:144. https://doi.org/10.3390/atmos8080144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogueira T, Dominutti P, Fornaro A, Andrade M de F (2017) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal Trends of Formaldehyde and Acetaldehyde in the Megacity of São Paulo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmosphere (Basel) 8:144. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/atmos8080145</t>
+  </si>
+  <si>
+    <t>Nogueira, T.; de Sales Cordeiro, D.; Muñoz, R.A.A.; Fornaro, A.; Miguel, A.H.; Andrade, M.F. Bioethanol and Biodiesel as Vehicular Fuels in Brazil—Assessment of Atmospheric Impacts from the Long Period of Biofuels Use. In Biofuels—Status Perspect; InTech: Rijeka, Croatia, 2015.</t>
+  </si>
+  <si>
+    <t>Orlando, J.P.; Alvim, D.S.; Yamazaki, A.; Corrêa, S.M.; Gatti, L.V. Ozone precursors for the São Paulo Metropolitan Area. Sci. Total Environ. 2010, 408, 1612–1620.</t>
+  </si>
+  <si>
+    <t>Sánchez-Ccoyllo, O.R.; Ynoue, R.Y.; Martins, L.D.; Andrade, M.F. Impacts of ozone precursor limitation and meteorological variables on ozone concentration in São Paulo, Brazil. Atmos. Environ. 2006, 40, 552–562.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogueira, T.; de Sales Cordeiro, D.; Muñoz, R.A.A.; Fornaro, A.; Miguel, A.H.; Andrade, M.F. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioethanol and Biodiesel as Vehicular Fuels in Brazil—Assessment of Atmospheric Impacts from the Long Period of Biofuels Use. </t>
+  </si>
+  <si>
+    <t>In Biofuels—Status Perspect; InTech: Rijeka, Croatia, 2015.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orlando, J.P.; Alvim, D.S.; Yamazaki, A.; Corrêa, S.M.; Gatti, L.V. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone precursors for the São Paulo Metropolitan Area. </t>
+  </si>
+  <si>
+    <t>Sci. Total Environ. 2010, 408, 1612–1620.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sánchez-Ccoyllo, O.R.; Ynoue, R.Y.; Martins, L.D.; Andrade, M.F. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts of ozone precursor limitation and meteorological variables on ozone concentration in São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t>Atmos. Environ. 2006, 40, 552–562.</t>
+  </si>
+  <si>
+    <t>Martins, L.D.; Andrade, M.F. Ozone Formation Potentials of Volatile Organic Compounds and Ozone Sensitivity to Their Emission in the Megacity of São Paulo, Brazil. Water Air Soil Pollut. 2008, 195, 201–213.</t>
+  </si>
+  <si>
+    <t>Salvo, A.; Geiger, F.M. Reduction in local ozone levels in urban São Paulo due to a shift from ethanol to gasoline use. Nat. Geosci. 2014, 7, 450–458.</t>
+  </si>
+  <si>
+    <t>Grosjean, D.; Miguel, A.H.; Tavares, T.M. Urban air pollution in Brazil: Acetaldehyde and other carbonyls. Atmos. Environ. B Urban Atmos. 1990, 24, 101–106.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martins, L.D.; Andrade, M.F. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone Formation Potentials of Volatile Organic Compounds and Ozone Sensitivity to Their Emission in the Megacity of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t>Water Air Soil Pollut. 2008, 195, 201–213.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvo, A.; Geiger, F.M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduction in local ozone levels in urban São Paulo due to a shift from ethanol to gasoline use. </t>
+  </si>
+  <si>
+    <t>Nat. Geosci. 2014, 7, 450–458.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grosjean, D.; Miguel, A.H.; Tavares, T.M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban air pollution in Brazil: Acetaldehyde and other carbonyls. </t>
+  </si>
+  <si>
+    <t>Atmos. Environ. B Urban Atmos. 1990, 24, 101–106.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigues, M.C.; Guarieiro, L.L.N.; Cardoso, M.P.; Souza, L.; Gisele, O.; Andrade, J.B.; Carvalho, L.S.; da Rocha, G.O.; de Andrade, J.B. Acetaldehyde and formaldehyde concentrations from sites impacted by heavy-duty diesel vehicles and their correlation with the fuel composition: Diesel and diesel/biodiesel blends. Fuel 2012, 92, 258–263. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrêa, S.M.; Martins, E.M.; Arbilla, G. Formaldehyde and acetaldehyde in a high traffic street of Rio de Janeiro, Brazil. Atmos. Environ. 2003, 37, 23–29. </t>
+  </si>
+  <si>
+    <t>Alvim, D.S.; Gatti, L.V.; dos Santos, M.H.; Yamazaki, A. Estudos dos compostos orgânicos voláteis precursores de ozônio na cidade de São Paulo. Eng. Sanit. Ambient. 2011, 16, 189–196.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigues, M.C.; Guarieiro, L.L.N.; Cardoso, M.P.; Souza, L.; Gisele, O.; Andrade, J.B.; Carvalho, L.S.; da Rocha, G.O.; de Andrade, J.B. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetaldehyde and formaldehyde concentrations from sites impacted by heavy-duty diesel vehicles and their correlation with the fuel composition: Diesel and diesel/biodiesel blends. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuel 2012, 92, 258–263. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrêa, S.M.; Martins, E.M.; Arbilla, G. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formaldehyde and acetaldehyde in a high traffic street of Rio de Janeiro, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos. Environ. 2003, 37, 23–29. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvim, D.S.; Gatti, L.V.; dos Santos, M.H.; Yamazaki, A. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudos dos compostos orgânicos voláteis precursores de ozônio na cidade de São Paulo. </t>
+  </si>
+  <si>
+    <t>Eng. Sanit. Ambient. 2011, 16, 189–196.</t>
+  </si>
+  <si>
+    <t>Massambani, O.; Andrade, F. Seasonal behavior of tropospheric ozone in the Sao Paulo (Brazil) metropolitan area. Atmos. Environ. 1994, 28, 3165–3169.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Silva, D.B.N.; Martins, E.M.; Corrêa, S.M. Role of carbonyls and aromatics in the formation of tropospheric ozone in Rio de Janeiro, Brazil. Environ. Monit. Assess. 2016, 188, 289. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massambani, O.; Andrade, F. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seasonal behavior of tropospheric ozone in the Sao Paulo (Brazil) metropolitan area. </t>
+  </si>
+  <si>
+    <t>Atmos. Environ. 1994, 28, 3165–3169.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Silva, D.B.N.; Martins, E.M.; Corrêa, S.M. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Role of carbonyls and aromatics in the formation of tropospheric ozone in Rio de Janeiro, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ. Monit. Assess. 2016, 188, 289. </t>
+  </si>
+  <si>
+    <t>MACIEL, F. M. ; SARTIM, R. ; MARTINS, L. D. ; CARVALHO, V. S. B. ; PEDRUZZI, R. ; ANDREÃO, W. L. ; ABREU, G. C. ; DE A. ALBUQUERQUE, T. T. . Impact of emission control strategies on air quality: a case study in Piracicaba, São Paulo-Brazil. INTERNATIONAL JOURNAL OF ENVIRONMENTAL SCIENCE AND TECHNOLOGY, v. -, p. -, 2021.</t>
+  </si>
+  <si>
+    <t>DOS SANTOS, FÁBIO SOARES ; ANDREÃO, WILLIAN LEMKER ; MIRANDA, GISELE ALVES ; DE CARVALHO, AMANDA NORONHA MOREIRA ; PINTO, JANAINA ANTONINO ; PEDRUZZI, RIZZIERI ; CARVALHO, VANESSA SILVEIRA BARRETO ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . Vehicular air pollutant emissions in a developing economy with the widespread use of biofuels. URBAN CLIMATE, v. 38, p. 100889, 2021.</t>
+  </si>
+  <si>
+    <t>ANDREÃO, WILLIAN LEMKER ; PINTO, JANAINA ANTONINO ; PEDRUZZI, RIZZIERI ; KUMAR, PRASHANT ; ALBUQUERQUE, TACIANA TOLEDO DE ALMEIDA . Quantifying the impact of particle matter on mortality and hospitalizations in four Brazilian metropolitan areas. JOURNAL OF ENVIRONMENTAL MANAGEMENT, v. 270, p. 110840, 2020.</t>
+  </si>
+  <si>
+    <t>PINTO, JANAINA ANTONINO ; KUMAR, PRASHANT ; ALONSO, MARCELO FÉLIX ; ANDREÃO, WILLIAN LEMKER ; PEDRUZZI, RIZZIERI ; ESPINOSA, SÉRGIO IBARRA ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . Kriging method application and traffic behavior profiles from local radar network database: A proposal to support traffic solutions and air pollution control strategies. Sustainable Cities and Society, v. 56, p. 102062, 2020.</t>
+  </si>
+  <si>
+    <t>PINTO, JANAINA ANTONINO ; KUMAR, PRASHANT ; ALONSO, MARCELO FÉLIX ; ANDREÃO, WILLIAN LEMKER ; PEDRUZZI, RIZZIERI ; DOS SANTOS, FÁBIO SOARES ; MOREIRA, DAVIDSON MARTINS ; ALBUQUERQUE, TACIANA TOLEDO DE ALMEIDA . Traffic data in air quality modeling: A review of key variables, improvements in results, open problems and challenges in current research. Atmospheric Pollution Research, v. 11, p. 454-468, 2020.</t>
+  </si>
+  <si>
+    <t>ANDREÃO, WILLIAN LEMKER ; ALONSO, MARCELO FELIX ; KUMAR, PRASHANT ; PINTO, JANAINA ANTONINO ; PEDRUZZI, RIZZIERI ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . Top-down vehicle emission inventory for spatial distribution and dispersion modeling of particulate matter. Environmental Science and Pollution Research, v. 1, p. 1-19, 2020.</t>
+  </si>
+  <si>
+    <t>PEDRUZZI, RIZZIERI; BAEK, BOK H. ; HENDERSON, BARRON H. ; ARAVANIS, NIKOLLE ; PINTO, JANAINA A. ; ARAUJO, IGOR B. ; NASCIMENTO, ERICK G. S. ; REIS JUNIOR, NEYVAL C. ; MOREIRA, DAVIDSON M. ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . Performance evaluation of a photochemical model using different boundary conditions over the urban and industrialized metropolitan area of Vitória, Brazil. Environmental Science and Pollution Research, v. 26, p. 16125-16144, 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACIEL, F. M. ; SARTIM, R. ; MARTINS, L. D. ; CARVALHO, V. S. B. ; PEDRUZZI, R. ; ANDREÃO, W. L. ; ABREU, G. C. ; DE A. ALBUQUERQUE, T. T. . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of emission control strategies on air quality: a case study in Piracicaba, São Paulo-Brazil. </t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF ENVIRONMENTAL SCIENCE AND TECHNOLOGY, v. -, p. -, 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOS SANTOS, FÁBIO SOARES ; ANDREÃO, WILLIAN LEMKER ; MIRANDA, GISELE ALVES ; DE CARVALHO, AMANDA NORONHA MOREIRA ; PINTO, JANAINA ANTONINO ; PEDRUZZI, RIZZIERI ; CARVALHO, VANESSA SILVEIRA BARRETO ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicular air pollutant emissions in a developing economy with the widespread use of biofuels. </t>
+  </si>
+  <si>
+    <t>URBAN CLIMATE, v. 38, p. 100889, 2021.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREÃO, WILLIAN LEMKER ; PINTO, JANAINA ANTONINO ; PEDRUZZI, RIZZIERI ; KUMAR, PRASHANT ; ALBUQUERQUE, TACIANA TOLEDO DE ALMEIDA . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantifying the impact of particle matter on mortality and hospitalizations in four Brazilian metropolitan areas. </t>
+  </si>
+  <si>
+    <t>JOURNAL OF ENVIRONMENTAL MANAGEMENT, v. 270, p. 110840, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINTO, JANAINA ANTONINO ; KUMAR, PRASHANT ; ALONSO, MARCELO FÉLIX ; ANDREÃO, WILLIAN LEMKER ; PEDRUZZI, RIZZIERI ; ESPINOSA, SÉRGIO IBARRA ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kriging method application and traffic behavior profiles from local radar network database: A proposal to support traffic solutions and air pollution control strategies. </t>
+  </si>
+  <si>
+    <t>Sustainable Cities and Society, v. 56, p. 102062, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINTO, JANAINA ANTONINO ; KUMAR, PRASHANT ; ALONSO, MARCELO FÉLIX ; ANDREÃO, WILLIAN LEMKER ; PEDRUZZI, RIZZIERI ; DOS SANTOS, FÁBIO SOARES ; MOREIRA, DAVIDSON MARTINS ; ALBUQUERQUE, TACIANA TOLEDO DE ALMEIDA . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic data in air quality modeling: A review of key variables, improvements in results, open problems and challenges in current research. </t>
+  </si>
+  <si>
+    <t>Atmospheric Pollution Research, v. 11, p. 454-468, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDREÃO, WILLIAN LEMKER ; ALONSO, MARCELO FELIX ; KUMAR, PRASHANT ; PINTO, JANAINA ANTONINO ; PEDRUZZI, RIZZIERI ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top-down vehicle emission inventory for spatial distribution and dispersion modeling of particulate matter. </t>
+  </si>
+  <si>
+    <t>Environmental Science and Pollution Research, v. 1, p. 1-19, 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRUZZI, RIZZIERI; BAEK, BOK H. ; HENDERSON, BARRON H. ; ARAVANIS, NIKOLLE ; PINTO, JANAINA A. ; ARAUJO, IGOR B. ; NASCIMENTO, ERICK G. S. ; REIS JUNIOR, NEYVAL C. ; MOREIRA, DAVIDSON M. ; DE ALMEIDA ALBUQUERQUE, TACIANA TOLEDO . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance evaluation of a photochemical model using different boundary conditions over the urban and industrialized metropolitan area of Vitória, Brazil. </t>
+  </si>
+  <si>
+    <t>Environmental Science and Pollution Research, v. 26, p. 16125-16144, 2019.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,6 +1046,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -726,10 +1367,896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189C6A76-4901-45AE-AEB1-B08029945816}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="2" max="2" width="54.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="90">
+      <c r="A2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75">
+      <c r="A3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75">
+      <c r="A7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60">
+      <c r="A8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="60">
+      <c r="A9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="90">
+      <c r="A13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="90">
+      <c r="A14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="90">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="60">
+      <c r="A16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75">
+      <c r="A17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="120">
+      <c r="A18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105">
+      <c r="A19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60">
+      <c r="A20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="135">
+      <c r="A22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="90">
+      <c r="A23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="60">
+      <c r="A25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="75">
+      <c r="A26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="75">
+      <c r="A27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="60">
+      <c r="A29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="75">
+      <c r="A30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="105">
+      <c r="A31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60">
+      <c r="A32" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="105">
+      <c r="A33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="120">
+      <c r="A34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="60">
+      <c r="A35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45">
+      <c r="A36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75">
+      <c r="A37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="75">
+      <c r="A38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="120">
+      <c r="A39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="90">
+      <c r="A40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="90">
+      <c r="A41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="90">
+      <c r="A42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="75">
+      <c r="A43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="75">
+      <c r="A44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="75">
+      <c r="A45" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB06F7A0-F5E8-488F-AFCC-2DF662BC5B37}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/Base de Artigos.xlsx
+++ b/Base de Artigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboar\Documents\GitHub\ArthurLearnsR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F90025D-EBEA-4514-823B-900DFC989398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B20E4-94E9-443F-BACC-1D6ACE3EF14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A25284F2-3655-465A-A186-7A8A4CA9AF5D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="470">
   <si>
     <t>Main Author</t>
   </si>
@@ -981,6 +981,462 @@
   </si>
   <si>
     <t>Environmental Science and Pollution Research, v. 26, p. 16125-16144, 2019.</t>
+  </si>
+  <si>
+    <t>Moreira G de A, de Oliveira AP, Codato G, et al (2022) Assessing Spatial Variation of PBL Height and Aerosol Layer Aloft in São Paulo Megacity Using Simultaneously Two Lidar during Winter 2019. Atmosphere (Basel) 13:. https://doi.org/10.3390/atmos13040611</t>
+  </si>
+  <si>
+    <t>Carpenedo CB, Ambrizzi T (2022) Atmospheric blockings in Coupled Model Intercomparison Project Phase 5 models with different representations of Antarctic sea ice extent. An Acad Bras Cienc 94:1–19. https://doi.org/10.1590/0001-3765202220210432</t>
+  </si>
+  <si>
+    <t>Moreira G de A, Oliveira AP de, Sánchez MP, et al (2022) Performance assessment of aerosol-lidar remote sensing skills to retrieve the time evolution of the urban boundary layer height in the Metropolitan Region of São Paulo City, Brazil. Atmos Res 277:. https://doi.org/10.1016/j.atmosres.2022.106290</t>
+  </si>
+  <si>
+    <t>Soares J, Alves M, Ribeiro FND, Codato G (2019) Surface radiation balance and weather conditions on a non-glaciated coastal area in the Antarctic region. Polar Sci 20:117–128. https://doi.org/10.1016/j.polar.2019.04.001</t>
+  </si>
+  <si>
+    <t>Ribeiro FND, Oliveira AP d., Soares J, et al (2018) Effect of sea breeze propagation on the urban boundary layer of the metropolitan region of Sao Paulo, Brazil. Atmos Res 214:174–188. https://doi.org/10.1016/j.atmosres.2018.07.015</t>
+  </si>
+  <si>
+    <t>Braz DF, Ambrizzi T, da Rocha RP, et al (2021) Assessing the Moisture Transports Associated With Nocturnal Low-Level Jets in Continental South America. Front Environ Sci 9:1–20. https://doi.org/10.3389/fenvs.2021.657764</t>
+  </si>
+  <si>
+    <t>Reboita MS, Ambrizzi T, Crespo NM, et al (2021) Impacts of teleconnection patterns on South America climate. Ann N Y Acad Sci 1504:116–153. https://doi.org/10.1111/nyas.14592</t>
+  </si>
+  <si>
+    <t>Marengo JA, Ambrizzi T, Barreto N, et al (2022) The heat wave of October 2020 in central South America. Int J Climatol 42:2281–2298. https://doi.org/10.1002/joc.7365</t>
+  </si>
+  <si>
+    <t>Soares J, Alves M, Dutra Ribeiro FN, Codato G (2019) Meteorological and surface radiation data observed at the Brazilian Antarctic station on King George Island. Data Br 25:104245. https://doi.org/10.1016/j.dib.2019.104245</t>
+  </si>
+  <si>
+    <t>Sicard P, Paoletti E, Agathokleous E, et al (2020) Ozone weekend effect in cities: Deep insights for urban air pollution control. Environ Res 191:110193. https://doi.org/10.1016/j.envres.2020.110193</t>
+  </si>
+  <si>
+    <t>Ribeiro FND, Soares J, Oliveira AP (2016) Sea-Breeze and Topographic Influences on the Planetary Boundary Layer in the Coastal Upwelling Area of Cabo Frio (Brazil). Boundary-Layer Meteorol 158:139–150. https://doi.org/10.1007/s10546-015-0085-x</t>
+  </si>
+  <si>
+    <t>Leoni RC, de Souza Sampaio NA, Corrêa SM (2017) Estatística Multivariada Aplicada ao Estudo da Qualidade do Ar. Rev Bras Meteorol 32:235–241. https://doi.org/10.1590/0102-77863220005</t>
+  </si>
+  <si>
+    <t>Nogarotto DC, Pozza SA (2020) A review of multivariate analysis: is there a relationship between airborne particulate matter and meteorological variables? Environ Monit Assess 192:. https://doi.org/10.1007/s10661-020-08538-1</t>
+  </si>
+  <si>
+    <t>Vormittag EDMPADA, Cirqueira SSR, Neto HW, Saldiva PH (2021) Análise do monitoramento da qualidade do ar no Brasil. Estud Avancados 35:7–30. https://doi.org/10.1590/s0103-4014.2021.35102.002</t>
+  </si>
+  <si>
+    <t>PDF e Impresso (2)</t>
+  </si>
+  <si>
+    <t>Chiquetto JB, Ynoue RY, Ibarra-Espinosa SA, et al (2020) Ozone Pollution and Urban Mobility Scenarios in the São Paulo Megacity. Ambient e Soc 23:1–23. https://doi.org/10.1590/1809-4422ASOC20190008R2VU2020L6AO</t>
+  </si>
+  <si>
+    <t>Ibarra-Espinosa S, Freitas ED de, Andrade M de F, Landulfo E (2022) Effects of Evaporative Emissions Control Measurements on Ozone Concentrations in Brazil. Atmosphere (Basel) 13:82. https://doi.org/10.3390/atmos13010082</t>
+  </si>
+  <si>
+    <t>Chiquetto JB, Silva MES, Ynoue RY, et al (2020) THE IMPACT OF DIFFERENT URBAN LAND USE TYPES ON AIR POLLUTION IN THE MEGACITY OF SÃO PAULO. Rev Presença Geográfica 7:91. https://doi.org/10.36026/rpgeo.v7i1.5366</t>
+  </si>
+  <si>
+    <t>Andreão WL, de Almeida Albuquerque TT (2020) Fine particles as a public health indicator in Brazil: from monitoring to modeling. Air Qual Atmos Heal 13:1453–1463. https://doi.org/10.1007/s11869-020-00899-3</t>
+  </si>
+  <si>
+    <t>Dominutti P, Nogueira T, Fornaro A, Borbon A (2020) One decade of VOCs measurements in São Paulo megacity: Composition, variability, and emission evaluation in a biofuel usage context. Sci Total Environ 738:139790. https://doi.org/10.1016/j.scitotenv.2020.139790</t>
+  </si>
+  <si>
+    <t>Ibarra-Espinosa S, Ynoue RY, Ropkins K, et al (2020) High spatial and temporal resolution vehicular emissions in south-east Brazil with traffic data from real-time GPS and travel demand models. Atmos Environ 222:117136. https://doi.org/10.1016/j.atmosenv.2019.117136</t>
+  </si>
+  <si>
+    <t>Freitas AD, Fornaro A (2022) Atmospheric Formaldehyde Monitored by TROPOMI Satellite Instrument throughout 2020 over São Paulo State, Brazil. Remote Sens 14:. https://doi.org/10.3390/rs14133032</t>
+  </si>
+  <si>
+    <t>Andreão WL, Albuquerque TT de A (2021) Avoidable mortality by implementing more restrictive fine particles standards in Brazil: An estimation using satellite surface data. Environ Res 192:110288. https://doi.org/10.1016/j.envres.2020.110288</t>
+  </si>
+  <si>
+    <t>Vieira-Filho MS, Lehmann C, Fornaro A (2015) Influence of local sources and topography on air quality and rainwater composition in Cubatão and São Paulo, Brazil. Atmos Environ 101:200–208. https://doi.org/10.1016/j.atmosenv.2014.11.025</t>
+  </si>
+  <si>
+    <t>Daiber A, Kuntic M, Hahad O, et al (2020) Effects of air pollution particles (ultrafine and fine particulate matter) on mitochondrial function and oxidative stress – Implications for cardiovascular and neurodegenerative diseases. Arch Biochem Biophys 696:108662. https://doi.org/10.1016/j.abb.2020.108662</t>
+  </si>
+  <si>
+    <t>de Paula Santos1 U, Abdo Arbex2, 3 M, Ferreira Braga3, 4 AL, et al (2021) Environmental air pollution: respiratory effects. J Bras Pneumol 47:e20200267. https://doi.org/10.36416/1806-3756/e20200267</t>
+  </si>
+  <si>
+    <t>Maia PD, Vieira-Filho M, Prado LF, et al (2022) Assessment of atmospheric particulate matter (PM10) in Central Brazil: Chemical and morphological aspects. Atmos Pollut Res 13:. https://doi.org/10.1016/j.apr.2022.101362</t>
+  </si>
+  <si>
+    <t>de Barros FS, Gonçalves FLT, Gobo JPA, Chiquetto JB (2021) Analysis of the association between meteorological variables and mortality in the elderly applied to different climatic characteristics of the State of São Paulo, Brazil. Theor Appl Climatol 144:327–338. https://doi.org/10.1007/s00704-021-03555-7</t>
+  </si>
+  <si>
+    <t>Gonçalves PB, Baltazar JP, Nogarotto DC, et al (2021) Occurrence of polar organic compounds in atmospheric particulate matter: a system review in South America. Environ Monit Assess 193:108. https://doi.org/10.1007/s10661-021-08881-x</t>
+  </si>
+  <si>
+    <t>Correia AL, Catandi PB (2016) Deriving cloud microphysics from radiometric measurements in the Amazon Basin. Atmos Sci Lett 17:596–602. https://doi.org/10.1002/asl.708</t>
+  </si>
+  <si>
+    <t>Correia AL, Sena ET, Silva Dias MAF, Koren I (2021) Preconditioning, aerosols, and radiation control the temperature of glaciation in Amazonian clouds. Commun Earth Environ 2:1–7. https://doi.org/10.1038/s43247-021-00250-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreira G de A, de Oliveira AP, Codato G, et al (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessing Spatial Variation of PBL Height and Aerosol Layer Aloft in São Paulo Megacity Using Simultaneously Two Lidar during Winter 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmosphere (Basel) 13:. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/atmos13040612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpenedo CB, Ambrizzi T (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric blockings in Coupled Model Intercomparison Project Phase 5 models with different representations of Antarctic sea ice extent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Acad Bras Cienc 94:1–19. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1590/0001-3765202220210432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreira G de A, Oliveira AP de, Sánchez MP, et al (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance assessment of aerosol-lidar remote sensing skills to retrieve the time evolution of the urban boundary layer height in the Metropolitan Region of São Paulo City, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Res 277:. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosres.2022.106291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soares J, Alves M, Ribeiro FND, Codato G (2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surface radiation balance and weather conditions on a non-glaciated coastal area in the Antarctic region. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polar Sci 20:117–128. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.polar.2019.04.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribeiro FND, Oliveira AP d., Soares J, et al (2018) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effect of sea breeze propagation on the urban boundary layer of the metropolitan region of Sao Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Res 214:174–188. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosres.2018.07.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braz DF, Ambrizzi T, da Rocha RP, et al (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessing the Moisture Transports Associated With Nocturnal Low-Level Jets in Continental South America. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Front Environ Sci 9:1–20. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fenvs.2021.657765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reboita MS, Ambrizzi T, Crespo NM, et al (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts of teleconnection patterns on South America climate. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann N Y Acad Sci 1504:116–153. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nyas.14593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marengo JA, Ambrizzi T, Barreto N, et al (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The heat wave of October 2020 in central South America. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int J Climatol 42:2281–2298. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/joc.7366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soares J, Alves M, Dutra Ribeiro FN, Codato G (2019) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meteorological and surface radiation data observed at the Brazilian Antarctic station on King George Island. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Br 25:104245. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.dib.2019.104246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicard P, Paoletti E, Agathokleous E, et al (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone weekend effect in cities: Deep insights for urban air pollution control. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Res 191:110193. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.envres.2020.110194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribeiro FND, Soares J, Oliveira AP (2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea-Breeze and Topographic Influences on the Planetary Boundary Layer in the Coastal Upwelling Area of Cabo Frio (Brazil). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary-Layer Meteorol 158:139–150. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10546-015-0085-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leoni RC, de Souza Sampaio NA, Corrêa SM (2017) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatística Multivariada Aplicada ao Estudo da Qualidade do Ar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev Bras Meteorol 32:235–241. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1590/0102-77863220005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogarotto DC, Pozza SA (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A review of multivariate analysis: is there a relationship between airborne particulate matter and meteorological variables? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Monit Assess 192:. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10661-020-08538-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vormittag EDMPADA, Cirqueira SSR, Neto HW, Saldiva PH (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Análise do monitoramento da qualidade do ar no Brasil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estud Avancados 35:7–30. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1590/s0103-4014.2021.35102.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiquetto JB, Ynoue RY, Ibarra-Espinosa SA, et al (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozone Pollution and Urban Mobility Scenarios in the São Paulo Megacity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambient e Soc 23:1–23. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1590/1809-4422ASOC20190008R2VU2020L6AO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibarra-Espinosa S, Freitas ED de, Andrade M de F, Landulfo E (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects of Evaporative Emissions Control Measurements on Ozone Concentrations in Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmosphere (Basel) 13:82. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/atmos13010083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiquetto JB, Silva MES, Ynoue RY, et al (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE IMPACT OF DIFFERENT URBAN LAND USE TYPES ON AIR POLLUTION IN THE MEGACITY OF SÃO PAULO. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rev Presença Geográfica 7:91. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.36026/rpgeo.v7i1.5367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreão WL, de Almeida Albuquerque TT (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine particles as a public health indicator in Brazil: from monitoring to modeling. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Qual Atmos Heal 13:1453–1463. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11869-020-00899-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominutti P, Nogueira T, Fornaro A, Borbon A (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One decade of VOCs measurements in São Paulo megacity: Composition, variability, and emission evaluation in a biofuel usage context. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sci Total Environ 738:139790. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scitotenv.2020.139791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibarra-Espinosa S, Ynoue RY, Ropkins K, et al (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High spatial and temporal resolution vehicular emissions in south-east Brazil with traffic data from real-time GPS and travel demand models. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Environ 222:117136. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2019.117137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freitas AD, Fornaro A (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Formaldehyde Monitored by TROPOMI Satellite Instrument throughout 2020 over São Paulo State, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote Sens 14:. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/rs14133033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andreão WL, Albuquerque TT de A (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoidable mortality by implementing more restrictive fine particles standards in Brazil: An estimation using satellite surface data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Res 192:110288. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.envres.2020.110289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vieira-Filho MS, Lehmann C, Fornaro A (2015) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence of local sources and topography on air quality and rainwater composition in Cubatão and São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Environ 101:200–208. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atmosenv.2014.11.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiber A, Kuntic M, Hahad O, et al (2020) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects of air pollution particles (ultrafine and fine particulate matter) on mitochondrial function and oxidative stress – Implications for cardiovascular and neurodegenerative diseases. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arch Biochem Biophys 696:108662. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.abb.2020.108663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Paula Santos U, Abdo Arbex,  M, Ferreira Braga,  AL, et al (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental air pollution: respiratory effects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Bras Pneumol 47:e20200267. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.36416/1806-3756/e20200268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maia PD, Vieira-Filho M, Prado LF, et al (2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment of atmospheric particulate matter (PM10) in Central Brazil: Chemical and morphological aspects. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Pollut Res 13:. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.apr.2022.101363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Barros FS, Gonçalves FLT, Gobo JPA, Chiquetto JB (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of the association between meteorological variables and mortality in the elderly applied to different climatic characteristics of the State of São Paulo, Brazil. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theor Appl Climatol 144:327–338. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00704-021-03555-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonçalves PB, Baltazar JP, Nogarotto DC, et al (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occurrence of polar organic compounds in atmospheric particulate matter: a system review in South America. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environ Monit Assess 193:108. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10661-021-08881-x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correia AL, Catandi PB (2016) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deriving cloud microphysics from radiometric measurements in the Amazon Basin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmos Sci Lett 17:596–602. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/asl.709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correia AL, Sena ET, Silva Dias MAF, Koren I (2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preconditioning, aerosols, and radiation control the temperature of glaciation in Amazonian clouds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commun Earth Environ 2:1–7. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s43247-021-00250-4</t>
+  </si>
+  <si>
+    <t>Revista</t>
   </si>
 </sst>
 </file>
@@ -1368,11 +1824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189C6A76-4901-45AE-AEB1-B08029945816}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,6 +1855,12 @@
       <c r="D1" s="7" t="s">
         <v>112</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="90">
       <c r="A2" s="7" t="s">
@@ -1419,264 +1881,282 @@
     </row>
     <row r="3" spans="1:6" ht="75">
       <c r="A3" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75">
+      <c r="A4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="90">
-      <c r="A4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:6" ht="90">
+      <c r="A5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75">
-      <c r="A5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="60">
+    <row r="6" spans="1:6" ht="90">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>401</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>208</v>
+        <v>402</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>403</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75">
       <c r="A8" s="7" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60">
+        <v>204</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90">
       <c r="A9" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>280</v>
+        <v>454</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60">
+        <v>455</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="75">
       <c r="A10" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>213</v>
+        <v>318</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60">
       <c r="A11" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>147</v>
+        <v>370</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>276</v>
+        <v>449</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>277</v>
+        <v>450</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90">
+        <v>451</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="75">
       <c r="A13" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="90">
+        <v>355</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60">
       <c r="A14" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>339</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>229</v>
+        <v>429</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>431</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75">
       <c r="A15" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>188</v>
+        <v>332</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75">
       <c r="A16" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>435</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="75">
@@ -1684,523 +2164,538 @@
         <v>122</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="120">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60">
       <c r="A18" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="105">
+        <v>235</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75">
       <c r="A19" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="60">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>261</v>
+        <v>461</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>262</v>
+        <v>462</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45">
+        <v>463</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60">
       <c r="A21" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="135">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="75">
       <c r="A22" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>367</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="90">
       <c r="A23" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>303</v>
+        <v>441</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>304</v>
+        <v>442</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45">
+        <v>443</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="75">
       <c r="A24" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>264</v>
+        <v>409</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>265</v>
+        <v>410</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>266</v>
+        <v>411</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="60">
       <c r="A25" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>287</v>
+        <v>445</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>288</v>
+        <v>446</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="75">
+        <v>447</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60">
       <c r="A26" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>173</v>
+        <v>393</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>174</v>
+        <v>394</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="75">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="60">
       <c r="A27" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="45">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="60">
       <c r="A28" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>286</v>
+        <v>227</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="60">
       <c r="A29" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>197</v>
+        <v>336</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>198</v>
+        <v>417</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>199</v>
+        <v>418</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>179</v>
+        <v>419</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="75">
       <c r="A30" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>193</v>
+        <v>146</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="105">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="75">
       <c r="A31" s="7" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="60">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>139</v>
+        <v>277</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="105">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="75">
       <c r="A33" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="120">
+        <v>427</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="90">
       <c r="A34" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="60">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="90">
       <c r="A35" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="90">
       <c r="A36" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="75">
+        <v>190</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="60">
       <c r="A37" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="75">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60">
       <c r="A38" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>145</v>
+        <v>374</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>115</v>
+        <v>375</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="120">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="75">
       <c r="A39" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>300</v>
+        <v>437</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="90">
+        <v>439</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="75">
       <c r="A40" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>238</v>
+        <v>151</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="90">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="120">
       <c r="A41" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>211</v>
+        <v>293</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="90">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>136</v>
+        <v>381</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>142</v>
+        <v>382</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>137</v>
+        <v>383</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="75">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="105">
       <c r="A43" s="7" t="s">
         <v>113</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="75">
       <c r="A44" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>108</v>
+      <c r="B44" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>143</v>
+        <v>458</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>109</v>
+        <v>459</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>110</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="75">
@@ -2208,19 +2703,19 @@
         <v>113</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>128</v>
+        <v>421</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>129</v>
+        <v>422</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>130</v>
+        <v>423</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>131</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="60">
@@ -2228,24 +2723,591 @@
         <v>113</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="75">
+      <c r="A47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45">
+      <c r="A48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="60">
+      <c r="A49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="90">
+      <c r="A50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="135">
+      <c r="A51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="75">
+      <c r="A52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="90">
+      <c r="A53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45">
+      <c r="A54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60">
+      <c r="A55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="75">
+      <c r="A56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="75">
+      <c r="A57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="75">
+      <c r="A58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="60">
+      <c r="A60" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F60" s="7" t="s">
         <v>245</v>
       </c>
     </row>
+    <row r="61" spans="1:6" ht="60">
+      <c r="A61" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="60">
+      <c r="A62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="75">
+      <c r="A63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="105">
+      <c r="A64" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="45">
+      <c r="A65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="60">
+      <c r="A66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="60">
+      <c r="A67" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="105">
+      <c r="A68" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="120">
+      <c r="A69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60">
+      <c r="A70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="45">
+      <c r="A71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="75">
+      <c r="A72" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="75">
+      <c r="A73" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="120">
+      <c r="A74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="90">
+      <c r="A75" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="90">
+      <c r="A76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:F46">
-    <sortCondition ref="A2:A46"/>
+  <sortState ref="A3:F76">
+    <sortCondition ref="D3:D76"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Base de Artigos.xlsx
+++ b/Base de Artigos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aboar\Documents\GitHub\ArthurLearnsR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B20E4-94E9-443F-BACC-1D6ACE3EF14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A6BC06-C1CA-4DA4-9ED9-0AF6CEA9AFB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A25284F2-3655-465A-A186-7A8A4CA9AF5D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="474">
   <si>
     <t>Main Author</t>
   </si>
@@ -1437,6 +1437,18 @@
   </si>
   <si>
     <t>Revista</t>
+  </si>
+  <si>
+    <t>Alvim, Débora Souza, Luciana Vanni Gatti, Sergio Machado Corrêa, Júlio Barboza Chiquetto, Carlos De Souza Rossatti, Angélica Pretto, Maria Helena Dos Santos, Amélia Yamazaki, João Paulo Orlando, and Guaciara Macedo Santos. "Main Ozone-forming VOCs in the City of Sao Paulo: Observations, Modelling and Impacts." Air Quality, Atmosphere and Health 10.4 (2017): 421-35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvim, Débora Souza, Luciana Vanni Gatti, Sergio Machado Corrêa, Júlio Barboza Chiquetto, Carlos De Souza Rossatti, Angélica Pretto, Maria Helena Dos Santos, Amélia Yamazaki, João Paulo Orlando, and Guaciara Macedo Santos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Ozone-forming VOCs in the City of Sao Paulo: Observations, Modelling and Impacts. </t>
+  </si>
+  <si>
+    <t>Air Quality, Atmosphere and Health 10.4 (2017): 421-35.</t>
   </si>
 </sst>
 </file>
@@ -1824,11 +1836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189C6A76-4901-45AE-AEB1-B08029945816}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2638,64 +2650,61 @@
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="60">
+    <row r="42" spans="1:6" ht="105">
       <c r="A42" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="60">
+      <c r="A43" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="105">
-      <c r="A43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="7" t="s">
+    <row r="44" spans="1:6" ht="105">
+      <c r="A44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D44" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="75">
-      <c r="A44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="75">
@@ -2703,318 +2712,318 @@
         <v>113</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="75">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F46" s="7" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="60">
-      <c r="A46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="47" spans="1:6" ht="60">
+      <c r="A47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="75">
-      <c r="A47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:6" ht="75">
+      <c r="A48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E48" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45">
-      <c r="A48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="49" spans="1:6" ht="45">
+      <c r="A49" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="60">
-      <c r="A49" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:6" ht="60">
+      <c r="A50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D50" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="90">
-      <c r="A50" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B50" s="7" t="s">
+    <row r="51" spans="1:6" ht="90">
+      <c r="A51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F51" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="135">
-      <c r="A51" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="7" t="s">
+    <row r="52" spans="1:6" ht="135">
+      <c r="A52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="75">
-      <c r="A52" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="6" t="s">
+    <row r="53" spans="1:6" ht="75">
+      <c r="A53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F53" s="7" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="90">
-      <c r="A53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="7" t="s">
+    <row r="54" spans="1:6" ht="90">
+      <c r="A54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E54" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="45">
-      <c r="A54" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="55" spans="1:6" ht="45">
+      <c r="A55" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60">
-      <c r="A55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="56" spans="1:6" ht="60">
+      <c r="A56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E56" s="7" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="75">
-      <c r="A56" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="75">
       <c r="A57" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="75">
       <c r="A58" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="75">
+      <c r="A59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="45">
-      <c r="A59" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="7" t="s">
+    <row r="60" spans="1:6" ht="45">
+      <c r="A60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="60">
-      <c r="A60" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="60">
       <c r="A61" s="7" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="60">
@@ -3022,99 +3031,99 @@
         <v>113</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="60">
+      <c r="A63" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E63" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F63" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="75">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:6" ht="75">
+      <c r="A64" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E64" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F64" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="105">
-      <c r="A64" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="7" t="s">
+    <row r="65" spans="1:6" ht="105">
+      <c r="A65" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E65" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F65" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="45">
-      <c r="A65" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="66" spans="1:6" ht="45">
+      <c r="A66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E66" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60">
-      <c r="A66" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="60">
@@ -3122,192 +3131,212 @@
         <v>113</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="60">
+      <c r="A68" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F68" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="105">
-      <c r="A68" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="7" t="s">
+    <row r="69" spans="1:6" ht="105">
+      <c r="A69" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E69" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="120">
-      <c r="A69" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="7" t="s">
+    <row r="70" spans="1:6" ht="120">
+      <c r="A70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E70" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="60">
-      <c r="A70" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" s="7" t="s">
+    <row r="71" spans="1:6" ht="60">
+      <c r="A71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F71" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="45">
-      <c r="A71" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="7" t="s">
+    <row r="72" spans="1:6" ht="45">
+      <c r="A72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="75">
-      <c r="A72" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="75">
       <c r="A73" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="75">
+      <c r="A74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E74" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="120">
-      <c r="A74" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B74" s="7" t="s">
+    <row r="75" spans="1:6" ht="120">
+      <c r="A75" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="90">
-      <c r="A75" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="90">
       <c r="A76" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="90">
+      <c r="A77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E77" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F77" s="7" t="s">
         <v>220</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F76">
-    <sortCondition ref="D3:D76"/>
+  <sortState ref="A3:F77">
+    <sortCondition ref="D3:D77"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
